--- a/biology/Zoologie/Bienosaurus/Bienosaurus.xlsx
+++ b/biology/Zoologie/Bienosaurus/Bienosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bienosaurus lufengensis
 Bienosaurus (ce qui signifie lézard du bien) est un genre éteint de dinosaures scelidosauridés de Chine. Il a vécu au cours du Jurassique inférieur (Sinémurien), il y a environ 195 Ma (millions d'années).
 On ne lui connait à l'heure actuelle qu'une seule espèce : Bienosaurus lufengensis.
-Il est considéré nomen dubium par R.B. Irmis et F. Knoll (2008)[2],[3] et M.C. Langer, M.D. Ezcurra, J.S. Bittencourt et F.E. Novas (2010)[4],[5].
-Dans leur étude de 2019, Thomas J. Raven, Paul M. Barrett, Xing Xu, et Susannah C.R. Maidment considérent qu'il pourrait être possiblement identique à Tatisaurus (en) de la même formation[6].
+Il est considéré nomen dubium par R.B. Irmis et F. Knoll (2008), et M.C. Langer, M.D. Ezcurra, J.S. Bittencourt et F.E. Novas (2010),.
+Dans leur étude de 2019, Thomas J. Raven, Paul M. Barrett, Xing Xu, et Susannah C.R. Maidment considérent qu'il pourrait être possiblement identique à Tatisaurus (en) de la même formation.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut découvert par Dong Zhiming en 2001.
 </t>
@@ -546,7 +560,9 @@
           <t>Matériel holotype</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu sur la base d'une mâchoire inférieure droite et de dents.
 </t>
@@ -577,7 +593,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possédait de fortes affinités avec Scelidosaurus.
 </t>
@@ -608,7 +626,9 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Article principal : Formation de Lufeng.
 </t>
